--- a/biology/Botanique/Millepertuis_androsème/Millepertuis_androsème.xlsx
+++ b/biology/Botanique/Millepertuis_androsème/Millepertuis_androsème.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Millepertuis_andros%C3%A8me</t>
+          <t>Millepertuis_androsème</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypericum androsaemum
 Le Millepertuis androsème ou Androsème officinal (Hypericum androsaemum L.) est une espèce de plantes à fleurs de la famille des Clusiacées selon la classification classique ou des Hypéricacées selon la classification phylogénétique. Elle appartient au genre des millepertuis (Hypericum).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Millepertuis_andros%C3%A8me</t>
+          <t>Millepertuis_androsème</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>C'est une plante herbacée vivace.
 Hauteur : 40-100 cm
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Millepertuis_andros%C3%A8me</t>
+          <t>Millepertuis_androsème</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante protégée en région Limousin Article 4 (1989) et en région Rhône-Alpes Article 1 (1990). Elle est aussi sur la liste rouge régionale des espèces de plantes du Nord-Pas-de-Calais et d'Île de France.
 </t>
